--- a/data/trans_dic/P35-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P35-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4213188819755522</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4730414876491798</v>
+        <v>0.4730414876491797</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2380990298031502</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1963719426523655</v>
+        <v>0.1960194121755554</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2310129482687591</v>
+        <v>0.2313896604342929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2999729840533499</v>
+        <v>0.2990988000607859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3598495577687667</v>
+        <v>0.3581903405441603</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2139986699301917</v>
+        <v>0.213777457167446</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3499622435276118</v>
+        <v>0.3499381585493012</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3936706086572098</v>
+        <v>0.391671871218685</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4350756403460206</v>
+        <v>0.4317998366621137</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2163178830161381</v>
+        <v>0.2184075626460094</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3014559904756857</v>
+        <v>0.3026143612302583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.355598357455824</v>
+        <v>0.3573831058292763</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4131667795092719</v>
+        <v>0.413698243366488</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2688965008245659</v>
+        <v>0.2708464575326023</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2855001989719332</v>
+        <v>0.2892175641669384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.359089859106817</v>
+        <v>0.3560219368966788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4548061435738231</v>
+        <v>0.4515249890558116</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2726823512677992</v>
+        <v>0.2711556942814742</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4122651339664628</v>
+        <v>0.407388417300374</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4527679908751528</v>
+        <v>0.4485966232598554</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5086526943792263</v>
+        <v>0.5079680478451338</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2610851760526963</v>
+        <v>0.26406169231307</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3442224401428137</v>
+        <v>0.3465798579765311</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3970759930810512</v>
+        <v>0.3976196973475006</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4732052302326944</v>
+        <v>0.4736315266819718</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3537229860071281</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4725346410474714</v>
+        <v>0.4725346410474715</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.187219035794099</v>
@@ -833,7 +833,7 @@
         <v>0.3197159695464649</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4636287483063118</v>
+        <v>0.4636287483063119</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1438417649049529</v>
+        <v>0.1431931066265763</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2257452926442301</v>
+        <v>0.2271240737418634</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2533176469531698</v>
+        <v>0.2515922143663272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.416723501493494</v>
+        <v>0.4177196131585145</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1849736956935348</v>
+        <v>0.1854457449880746</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3058739382141933</v>
+        <v>0.3049149768464815</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3229811531373544</v>
+        <v>0.3193759839385139</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.448210695759188</v>
+        <v>0.4467370765849576</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1692987720676516</v>
+        <v>0.1714414064140614</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2768248558295103</v>
+        <v>0.275350832232238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2965478877749445</v>
+        <v>0.2966564923549662</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4417550726113597</v>
+        <v>0.4414014310278105</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1885850120084108</v>
+        <v>0.1900669612257575</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2828822392157201</v>
+        <v>0.2820227931555166</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3120263547807106</v>
+        <v>0.3139822239252665</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4916459811044381</v>
+        <v>0.4859210367026092</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2343920029336047</v>
+        <v>0.2371567260228394</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3662071735225411</v>
+        <v>0.3669021510807011</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3830519550348714</v>
+        <v>0.3808416128666129</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5000241454936534</v>
+        <v>0.4973518874902575</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2043230599900416</v>
+        <v>0.205614236111908</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.318474635138348</v>
+        <v>0.3160465963659882</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3439715345916695</v>
+        <v>0.3426387329857714</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4851988969187906</v>
+        <v>0.4841469204063103</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2585011083228637</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3269973109120735</v>
+        <v>0.3269973109120734</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1847444301286071</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1421665448312607</v>
+        <v>0.1432478408151251</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2360151035005488</v>
+        <v>0.2383976668603263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2139552626786876</v>
+        <v>0.2127598052294156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2897831480669997</v>
+        <v>0.2876544125141172</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1840915655366926</v>
+        <v>0.1844431448286448</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2687686409339861</v>
+        <v>0.2728475411882255</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2253544814704782</v>
+        <v>0.2266953325067633</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3015569498746671</v>
+        <v>0.30222388232293</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1675955423196022</v>
+        <v>0.1693453307063153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2641802187426843</v>
+        <v>0.2629061119355745</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2300671751651124</v>
+        <v>0.2297066693438847</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3046392012191642</v>
+        <v>0.3028425526650408</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.18667099176163</v>
+        <v>0.1874378553199532</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3028501623128012</v>
+        <v>0.3029770942829992</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2732443877501055</v>
+        <v>0.2736299208149652</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3493029188198604</v>
+        <v>0.3498677374029144</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.238035884559807</v>
+        <v>0.2374621428093024</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3336666837265125</v>
+        <v>0.3406147790761208</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2902010331334771</v>
+        <v>0.2926445386458873</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3528904983995284</v>
+        <v>0.3528136601057705</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.202101243759087</v>
+        <v>0.2028348910226942</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3095128993421009</v>
+        <v>0.308381546736523</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.273024260066613</v>
+        <v>0.2741754294857724</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3439659690637125</v>
+        <v>0.3410111506329339</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1309823751181931</v>
+        <v>0.1301630655929224</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2100388250567511</v>
+        <v>0.2129776105745361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1845340243102062</v>
+        <v>0.1880861016205321</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2078458498504346</v>
+        <v>0.2069998716418316</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1446439397423979</v>
+        <v>0.1447302108892558</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3020368316070673</v>
+        <v>0.3049620039394279</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2429291985633193</v>
+        <v>0.2466105848708203</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2365104617956617</v>
+        <v>0.2340512387470204</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1439477861170733</v>
+        <v>0.1474315180577935</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2684642530512358</v>
+        <v>0.2709750108013927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2281059524600186</v>
+        <v>0.2297152909591112</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2270018554753674</v>
+        <v>0.2272483972794607</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2038101428891424</v>
+        <v>0.2019600203397022</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2949753350139093</v>
+        <v>0.3000732080845908</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2668933669851859</v>
+        <v>0.2662512446855079</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2635726772083321</v>
+        <v>0.2643554813084696</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2333044494321688</v>
+        <v>0.2315135983518568</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4009005888132965</v>
+        <v>0.4028793079202441</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3308641315092649</v>
+        <v>0.3333643977889796</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2863407792616495</v>
+        <v>0.2850978829726474</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1986120556693572</v>
+        <v>0.2023892365275445</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3323222490653779</v>
+        <v>0.3345117441927375</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2877840554811866</v>
+        <v>0.2875071191806103</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2650116128998452</v>
+        <v>0.2659920845972305</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3145482264440824</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3620371980948435</v>
+        <v>0.3620371980948436</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1632088610165884</v>
+        <v>0.1623821014611136</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2427196444366025</v>
+        <v>0.2436429376142177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2644226181417385</v>
+        <v>0.2637026362791755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3259430562086936</v>
+        <v>0.3271724492759676</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2008484817581374</v>
+        <v>0.2019697486504486</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3268158658168269</v>
+        <v>0.3270389184048537</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3313717913791182</v>
+        <v>0.3322668766298937</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3642364214125996</v>
+        <v>0.36488154784078</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1862646227900226</v>
+        <v>0.1867598157550025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2906905190630198</v>
+        <v>0.2912679664137687</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3029585693505646</v>
+        <v>0.302611322942386</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3516862577308046</v>
+        <v>0.3517719884344798</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1891947226359005</v>
+        <v>0.1905872410141326</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2748277092253418</v>
+        <v>0.2760110676384435</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2956251801509764</v>
+        <v>0.2939733299559065</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3595272601265296</v>
+        <v>0.3622590172926025</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2312716751321069</v>
+        <v>0.2318432493888135</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3600427629522517</v>
+        <v>0.3600880015997749</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3664535258442802</v>
+        <v>0.3645159175096025</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3932232111730752</v>
+        <v>0.3936334796374933</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2060445119420634</v>
+        <v>0.206888153257255</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3138696543694472</v>
+        <v>0.3148077689910309</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3260689606501855</v>
+        <v>0.3256916180663641</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3742593893012973</v>
+        <v>0.3732162485484501</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>109087</v>
+        <v>108891</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>233874</v>
+        <v>234255</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>334514</v>
+        <v>333539</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>179471</v>
+        <v>178643</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>188603</v>
+        <v>188408</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>379750</v>
+        <v>379724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>491017</v>
+        <v>488524</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>271038</v>
+        <v>268997</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>310814</v>
+        <v>313817</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>632305</v>
+        <v>634734</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>840075</v>
+        <v>844291</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>463452</v>
+        <v>464048</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>149376</v>
+        <v>150459</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>289036</v>
+        <v>292799</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>400438</v>
+        <v>397017</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>226830</v>
+        <v>225193</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>240322</v>
+        <v>238977</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>447356</v>
+        <v>442065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>564728</v>
+        <v>559525</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>316874</v>
+        <v>316448</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>375138</v>
+        <v>379414</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>722007</v>
+        <v>726952</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>938063</v>
+        <v>939347</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>530798</v>
+        <v>531276</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>149422</v>
+        <v>148749</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>214323</v>
+        <v>215632</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>225511</v>
+        <v>223975</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>400112</v>
+        <v>401068</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>186954</v>
+        <v>187431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>324311</v>
+        <v>323294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>317757</v>
+        <v>314210</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>499812</v>
+        <v>498169</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>346979</v>
+        <v>351370</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>556329</v>
+        <v>553367</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>555748</v>
+        <v>555951</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>916758</v>
+        <v>916024</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>195902</v>
+        <v>197441</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>268569</v>
+        <v>267753</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>277776</v>
+        <v>279517</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>472047</v>
+        <v>466551</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>236902</v>
+        <v>239696</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>388281</v>
+        <v>389018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>376856</v>
+        <v>374681</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>557590</v>
+        <v>554611</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>418761</v>
+        <v>421407</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>640032</v>
+        <v>635152</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>644622</v>
+        <v>642125</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1006916</v>
+        <v>1004733</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>152065</v>
+        <v>153222</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>202122</v>
+        <v>204162</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>173178</v>
+        <v>172211</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>303252</v>
+        <v>301024</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>173351</v>
+        <v>173682</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>229423</v>
+        <v>232905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>171912</v>
+        <v>172935</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>315800</v>
+        <v>316499</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>337082</v>
+        <v>340601</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>451749</v>
+        <v>449570</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>361726</v>
+        <v>361159</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>637826</v>
+        <v>634065</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>199669</v>
+        <v>200489</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>259359</v>
+        <v>259468</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>221168</v>
+        <v>221480</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>365538</v>
+        <v>366129</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>224147</v>
+        <v>223607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>284821</v>
+        <v>290752</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>221380</v>
+        <v>223244</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>369558</v>
+        <v>369478</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>406483</v>
+        <v>407958</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>529268</v>
+        <v>527333</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>429266</v>
+        <v>431076</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>720165</v>
+        <v>713979</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55134</v>
+        <v>54790</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>103280</v>
+        <v>104725</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>92035</v>
+        <v>93807</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>202843</v>
+        <v>202017</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>46537</v>
+        <v>46565</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>132148</v>
+        <v>133428</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>117637</v>
+        <v>119420</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>214406</v>
+        <v>212177</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>106905</v>
+        <v>109493</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>249469</v>
+        <v>251802</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>224226</v>
+        <v>225808</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>427324</v>
+        <v>427788</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>85790</v>
+        <v>85011</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>145045</v>
+        <v>147552</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>133112</v>
+        <v>132791</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>257228</v>
+        <v>257992</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>75063</v>
+        <v>74487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>175404</v>
+        <v>176269</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>160220</v>
+        <v>161430</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>259580</v>
+        <v>258453</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>147503</v>
+        <v>150308</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>308808</v>
+        <v>310843</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>282889</v>
+        <v>282617</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>498876</v>
+        <v>500722</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>503478</v>
+        <v>500928</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>803378</v>
+        <v>806434</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>876174</v>
+        <v>873789</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1134700</v>
+        <v>1138980</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>633763</v>
+        <v>637301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1123112</v>
+        <v>1123878</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1152577</v>
+        <v>1155690</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1344712</v>
+        <v>1347094</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1162346</v>
+        <v>1165437</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1961122</v>
+        <v>1965018</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2057615</v>
+        <v>2055257</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2522699</v>
+        <v>2523314</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>583641</v>
+        <v>587937</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>909652</v>
+        <v>913569</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>979565</v>
+        <v>974092</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1251616</v>
+        <v>1261127</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>729761</v>
+        <v>731564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1237297</v>
+        <v>1237452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1274598</v>
+        <v>1267859</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1451728</v>
+        <v>1453242</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1285779</v>
+        <v>1291043</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2117499</v>
+        <v>2123828</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2214575</v>
+        <v>2212012</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2684619</v>
+        <v>2677137</v>
       </c>
     </row>
     <row r="24">
